--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyscripts\github\ORC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDB39B3-777E-459D-A136-7C1212AF3F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B727D-F0FB-4583-8D20-107616B2DAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1350" windowWidth="21630" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="750" windowWidth="21630" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="streams" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -658,10 +660,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pyscripts\github\ORC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B727D-F0FB-4583-8D20-107616B2DAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3CA1C0-1396-4B65-BC77-65B71EA1D6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="750" windowWidth="21630" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="streams" sheetId="1" r:id="rId1"/>
-    <sheet name="blocks" sheetId="2" r:id="rId2"/>
+    <sheet name="REGEN-streams" sheetId="1" r:id="rId1"/>
+    <sheet name="REGEN-blocks" sheetId="2" r:id="rId2"/>
+    <sheet name="SIMPLE-streams" sheetId="3" r:id="rId3"/>
+    <sheet name="SIMPLE-blocks" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>T</t>
   </si>
@@ -95,6 +97,12 @@
   </si>
   <si>
     <t>HEATER</t>
+  </si>
+  <si>
+    <t>PUMP-HEAT</t>
+  </si>
+  <si>
+    <t>TURB-COND</t>
   </si>
 </sst>
 </file>
@@ -629,9 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -737,9 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD66611-0973-43DF-931D-B8205144FC57}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -804,4 +808,160 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8FE5AC-71AB-4D17-900F-D3224CA149C8}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="G9" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E68B5A-2B85-46E7-966A-A141DE621C5B}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" s="22" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>